--- a/System 6 Renovation Working Files/Test Files/Template (3).xlsx
+++ b/System 6 Renovation Working Files/Test Files/Template (3).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="75">
   <si>
     <t>BEGIN</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Policy Holder(Can be ignored if same as Policy Payer)</t>
+  </si>
+  <si>
+    <t>Dependent 4</t>
   </si>
 </sst>
 </file>
@@ -890,20 +893,23 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="61" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="33" borderId="10" xfId="61" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="59" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="59" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="59" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="59" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="33" borderId="10" xfId="60" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="33" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -914,13 +920,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="46" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="33" borderId="10" xfId="60" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="33" borderId="10" xfId="61" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1285,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D270"/>
+  <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="H266" sqref="H266"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1302,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3">
@@ -1310,7 +1313,7 @@
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="3">
         <v>7</v>
       </c>
@@ -1319,7 +1322,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="6">
@@ -1330,7 +1333,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="5">
         <v>4</v>
       </c>
@@ -1339,7 +1342,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="5">
         <v>5</v>
       </c>
@@ -1348,7 +1351,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="5">
         <v>6</v>
       </c>
@@ -1357,7 +1360,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="5">
         <v>7</v>
       </c>
@@ -1377,7 +1380,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6">
@@ -1388,7 +1391,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="5">
         <v>4</v>
       </c>
@@ -1397,7 +1400,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="5">
         <v>5</v>
       </c>
@@ -1406,7 +1409,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="5">
         <v>6</v>
       </c>
@@ -1415,7 +1418,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="5">
         <v>7</v>
       </c>
@@ -1424,7 +1427,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="6">
         <v>8</v>
       </c>
@@ -1433,7 +1436,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="8">
@@ -1444,7 +1447,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="8">
         <v>3</v>
       </c>
@@ -1453,2699 +1456,2413 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="A17" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="14">
         <v>3</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>22</v>
+      <c r="D17" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>23</v>
-      </c>
+      <c r="A18" s="33"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="25"/>
-      <c r="C19" s="14">
-        <v>4</v>
+      <c r="C19" s="13">
+        <v>5</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="25"/>
       <c r="C20" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="25"/>
       <c r="C21" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="25"/>
       <c r="C22" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="25"/>
       <c r="C23" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="25"/>
       <c r="C24" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="25"/>
       <c r="C25" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="13">
-        <v>15</v>
+      <c r="A26" s="33"/>
+      <c r="B26" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="14">
+        <v>3</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="14">
-        <v>3</v>
+      <c r="A27" s="33"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="13">
+        <v>4</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="25"/>
       <c r="C28" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="25"/>
       <c r="C29" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="25"/>
-      <c r="C30" s="13">
-        <v>6</v>
+      <c r="C30" s="14">
+        <v>7</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="25"/>
-      <c r="C31" s="14">
-        <v>7</v>
+      <c r="C31" s="13">
+        <v>8</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="25"/>
       <c r="C32" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="25"/>
       <c r="C33" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="25"/>
       <c r="C34" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="25"/>
       <c r="C35" s="13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="13">
-        <v>14</v>
+      <c r="A36" s="33"/>
+      <c r="B36" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="14">
+        <v>4</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="14">
+      <c r="A37" s="33"/>
+      <c r="B37" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="13">
+        <v>3</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="33"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="13">
         <v>4</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="13">
-        <v>3</v>
-      </c>
       <c r="D38" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="25"/>
       <c r="C39" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="25"/>
       <c r="C40" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="25"/>
       <c r="C41" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="25"/>
       <c r="C42" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="13">
+      <c r="A43" s="33"/>
+      <c r="B43" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="18">
+        <v>3</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="33"/>
+      <c r="B44" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="16">
+        <v>6</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="33"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="16">
+        <v>7</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="33"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="16">
         <v>10</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="18">
+      <c r="D46" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="33"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="16">
+        <v>12</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="33"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="16">
+        <v>13</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="33"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="16">
+        <v>14</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="33"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="16">
+        <v>15</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="14">
         <v>3</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="16">
-        <v>6</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="16">
-        <v>7</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="16">
-        <v>10</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="16">
-        <v>12</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="16">
-        <v>13</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="16">
-        <v>14</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="16">
-        <v>15</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>60</v>
+      <c r="D51" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>23</v>
-      </c>
+      <c r="A52" s="24"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="25"/>
-      <c r="C53" s="14">
-        <v>4</v>
+      <c r="C53" s="13">
+        <v>5</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="25"/>
       <c r="C54" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="25"/>
       <c r="C55" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="25"/>
       <c r="C56" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="25"/>
       <c r="C57" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="25"/>
       <c r="C58" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="25"/>
       <c r="C59" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="13">
-        <v>15</v>
+      <c r="A60" s="24"/>
+      <c r="B60" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="14">
+        <v>3</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="14">
-        <v>3</v>
+      <c r="A61" s="24"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="13">
+        <v>4</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="25"/>
       <c r="C62" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="25"/>
       <c r="C63" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="25"/>
-      <c r="C64" s="13">
-        <v>6</v>
+      <c r="C64" s="14">
+        <v>7</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="25"/>
-      <c r="C65" s="14">
-        <v>7</v>
+      <c r="C65" s="13">
+        <v>8</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="25"/>
       <c r="C66" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="25"/>
       <c r="C67" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="25"/>
       <c r="C68" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="25"/>
       <c r="C69" s="13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="13">
-        <v>14</v>
+      <c r="A70" s="24"/>
+      <c r="B70" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="14">
+        <v>4</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="14">
+      <c r="A71" s="24"/>
+      <c r="B71" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="13">
+        <v>3</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="24"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="13">
         <v>4</v>
       </c>
-      <c r="D71" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C72" s="13">
-        <v>3</v>
-      </c>
       <c r="D72" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
+      <c r="A73" s="24"/>
       <c r="B73" s="25"/>
       <c r="C73" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="25"/>
       <c r="C74" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
+      <c r="A75" s="24"/>
       <c r="B75" s="25"/>
       <c r="C75" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
+      <c r="A76" s="24"/>
       <c r="B76" s="25"/>
       <c r="C76" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="31"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="13">
-        <v>10</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>52</v>
+      <c r="A77" s="24"/>
+      <c r="B77" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" s="18">
+        <v>3</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
-      <c r="B78" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C78" s="18">
+      <c r="A78" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="14">
         <v>3</v>
       </c>
-      <c r="D78" s="17" t="s">
-        <v>62</v>
+      <c r="D78" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B79" s="25" t="s">
-        <v>23</v>
-      </c>
+      <c r="A79" s="24"/>
+      <c r="B79" s="25"/>
       <c r="C79" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
+      <c r="A80" s="24"/>
       <c r="B80" s="25"/>
-      <c r="C80" s="14">
-        <v>4</v>
+      <c r="C80" s="13">
+        <v>5</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="31"/>
+      <c r="A81" s="24"/>
       <c r="B81" s="25"/>
       <c r="C81" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="31"/>
+      <c r="A82" s="24"/>
       <c r="B82" s="25"/>
       <c r="C82" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
+      <c r="A83" s="24"/>
       <c r="B83" s="25"/>
       <c r="C83" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="31"/>
+      <c r="A84" s="24"/>
       <c r="B84" s="25"/>
       <c r="C84" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="31"/>
+      <c r="A85" s="24"/>
       <c r="B85" s="25"/>
       <c r="C85" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="31"/>
+      <c r="A86" s="24"/>
       <c r="B86" s="25"/>
       <c r="C86" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="31"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="13">
-        <v>15</v>
+      <c r="A87" s="24"/>
+      <c r="B87" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="14">
+        <v>3</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
-      <c r="B88" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C88" s="14">
-        <v>3</v>
+      <c r="A88" s="24"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="13">
+        <v>4</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="31"/>
+      <c r="A89" s="24"/>
       <c r="B89" s="25"/>
       <c r="C89" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="31"/>
+      <c r="A90" s="24"/>
       <c r="B90" s="25"/>
       <c r="C90" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="31"/>
+      <c r="A91" s="24"/>
       <c r="B91" s="25"/>
-      <c r="C91" s="13">
-        <v>6</v>
+      <c r="C91" s="14">
+        <v>7</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="31"/>
+      <c r="A92" s="24"/>
       <c r="B92" s="25"/>
-      <c r="C92" s="14">
-        <v>7</v>
+      <c r="C92" s="13">
+        <v>8</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="31"/>
+      <c r="A93" s="24"/>
       <c r="B93" s="25"/>
       <c r="C93" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="31"/>
+      <c r="A94" s="24"/>
       <c r="B94" s="25"/>
       <c r="C94" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="31"/>
+      <c r="A95" s="24"/>
       <c r="B95" s="25"/>
       <c r="C95" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="31"/>
+      <c r="A96" s="24"/>
       <c r="B96" s="25"/>
       <c r="C96" s="13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="31"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="13">
-        <v>14</v>
+      <c r="A97" s="24"/>
+      <c r="B97" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97" s="14">
+        <v>4</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="31"/>
-      <c r="B98" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C98" s="14">
+      <c r="A98" s="24"/>
+      <c r="B98" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C98" s="13">
+        <v>3</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="24"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="13">
         <v>4</v>
       </c>
-      <c r="D98" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="31"/>
-      <c r="B99" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C99" s="13">
-        <v>3</v>
-      </c>
       <c r="D99" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="31"/>
+      <c r="A100" s="24"/>
       <c r="B100" s="25"/>
       <c r="C100" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="31"/>
+      <c r="A101" s="24"/>
       <c r="B101" s="25"/>
       <c r="C101" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="31"/>
+      <c r="A102" s="24"/>
       <c r="B102" s="25"/>
       <c r="C102" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="31"/>
+      <c r="A103" s="24"/>
       <c r="B103" s="25"/>
       <c r="C103" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="31"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="13">
-        <v>10</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>52</v>
+      <c r="A104" s="24"/>
+      <c r="B104" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C104" s="18">
+        <v>3</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="31"/>
-      <c r="B105" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C105" s="18">
+      <c r="A105" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B105" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="14">
         <v>3</v>
       </c>
-      <c r="D105" s="17" t="s">
-        <v>62</v>
+      <c r="D105" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B106" s="25" t="s">
-        <v>23</v>
-      </c>
+      <c r="A106" s="24"/>
+      <c r="B106" s="25"/>
       <c r="C106" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="31"/>
+      <c r="A107" s="24"/>
       <c r="B107" s="25"/>
-      <c r="C107" s="14">
-        <v>4</v>
+      <c r="C107" s="13">
+        <v>5</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="31"/>
+      <c r="A108" s="24"/>
       <c r="B108" s="25"/>
       <c r="C108" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="31"/>
+      <c r="A109" s="24"/>
       <c r="B109" s="25"/>
       <c r="C109" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="31"/>
+      <c r="A110" s="24"/>
       <c r="B110" s="25"/>
       <c r="C110" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="31"/>
+      <c r="A111" s="24"/>
       <c r="B111" s="25"/>
       <c r="C111" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="31"/>
+      <c r="A112" s="24"/>
       <c r="B112" s="25"/>
       <c r="C112" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="31"/>
+      <c r="A113" s="24"/>
       <c r="B113" s="25"/>
       <c r="C113" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="31"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="13">
-        <v>15</v>
+      <c r="A114" s="24"/>
+      <c r="B114" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" s="14">
+        <v>3</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="31"/>
-      <c r="B115" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C115" s="14">
-        <v>3</v>
+      <c r="A115" s="24"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="13">
+        <v>4</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="31"/>
+      <c r="A116" s="24"/>
       <c r="B116" s="25"/>
       <c r="C116" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="31"/>
+      <c r="A117" s="24"/>
       <c r="B117" s="25"/>
       <c r="C117" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="31"/>
+      <c r="A118" s="24"/>
       <c r="B118" s="25"/>
-      <c r="C118" s="13">
-        <v>6</v>
+      <c r="C118" s="14">
+        <v>7</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="31"/>
+      <c r="A119" s="24"/>
       <c r="B119" s="25"/>
-      <c r="C119" s="14">
-        <v>7</v>
+      <c r="C119" s="13">
+        <v>8</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="31"/>
+      <c r="A120" s="24"/>
       <c r="B120" s="25"/>
       <c r="C120" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="31"/>
+      <c r="A121" s="24"/>
       <c r="B121" s="25"/>
       <c r="C121" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="31"/>
+      <c r="A122" s="24"/>
       <c r="B122" s="25"/>
       <c r="C122" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="31"/>
+      <c r="A123" s="24"/>
       <c r="B123" s="25"/>
       <c r="C123" s="13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="31"/>
-      <c r="B124" s="25"/>
-      <c r="C124" s="13">
-        <v>14</v>
+      <c r="A124" s="24"/>
+      <c r="B124" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C124" s="14">
+        <v>4</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="31"/>
-      <c r="B125" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C125" s="14">
+      <c r="A125" s="24"/>
+      <c r="B125" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C125" s="13">
+        <v>3</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="24"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="13">
         <v>4</v>
       </c>
-      <c r="D125" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="31"/>
-      <c r="B126" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C126" s="13">
-        <v>3</v>
-      </c>
       <c r="D126" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="31"/>
+      <c r="A127" s="24"/>
       <c r="B127" s="25"/>
       <c r="C127" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="31"/>
+      <c r="A128" s="24"/>
       <c r="B128" s="25"/>
       <c r="C128" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="31"/>
+      <c r="A129" s="24"/>
       <c r="B129" s="25"/>
       <c r="C129" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="31"/>
+      <c r="A130" s="24"/>
       <c r="B130" s="25"/>
       <c r="C130" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="31"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="13">
-        <v>10</v>
-      </c>
-      <c r="D131" s="12" t="s">
-        <v>52</v>
+      <c r="A131" s="24"/>
+      <c r="B131" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C131" s="18">
+        <v>3</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="31"/>
-      <c r="B132" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C132" s="18">
+      <c r="A132" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B132" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132" s="14">
         <v>3</v>
       </c>
-      <c r="D132" s="17" t="s">
-        <v>62</v>
+      <c r="D132" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B133" s="25" t="s">
-        <v>23</v>
-      </c>
+      <c r="A133" s="24"/>
+      <c r="B133" s="25"/>
       <c r="C133" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="31"/>
+      <c r="A134" s="24"/>
       <c r="B134" s="25"/>
-      <c r="C134" s="14">
-        <v>4</v>
+      <c r="C134" s="13">
+        <v>5</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="31"/>
+      <c r="A135" s="24"/>
       <c r="B135" s="25"/>
       <c r="C135" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="31"/>
+      <c r="A136" s="24"/>
       <c r="B136" s="25"/>
       <c r="C136" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="31"/>
+      <c r="A137" s="24"/>
       <c r="B137" s="25"/>
       <c r="C137" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="31"/>
+      <c r="A138" s="24"/>
       <c r="B138" s="25"/>
       <c r="C138" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="31"/>
+      <c r="A139" s="24"/>
       <c r="B139" s="25"/>
       <c r="C139" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="31"/>
+      <c r="A140" s="24"/>
       <c r="B140" s="25"/>
       <c r="C140" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="31"/>
-      <c r="B141" s="25"/>
-      <c r="C141" s="13">
-        <v>15</v>
+      <c r="A141" s="24"/>
+      <c r="B141" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C141" s="14">
+        <v>3</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="31"/>
-      <c r="B142" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C142" s="14">
-        <v>3</v>
+      <c r="A142" s="24"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="13">
+        <v>4</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="31"/>
+      <c r="A143" s="24"/>
       <c r="B143" s="25"/>
       <c r="C143" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="31"/>
+      <c r="A144" s="24"/>
       <c r="B144" s="25"/>
       <c r="C144" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="31"/>
+      <c r="A145" s="24"/>
       <c r="B145" s="25"/>
-      <c r="C145" s="13">
-        <v>6</v>
+      <c r="C145" s="14">
+        <v>7</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="31"/>
+      <c r="A146" s="24"/>
       <c r="B146" s="25"/>
-      <c r="C146" s="14">
-        <v>7</v>
+      <c r="C146" s="13">
+        <v>8</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="31"/>
+      <c r="A147" s="24"/>
       <c r="B147" s="25"/>
       <c r="C147" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="31"/>
+      <c r="A148" s="24"/>
       <c r="B148" s="25"/>
       <c r="C148" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="31"/>
+      <c r="A149" s="24"/>
       <c r="B149" s="25"/>
       <c r="C149" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="31"/>
+      <c r="A150" s="24"/>
       <c r="B150" s="25"/>
       <c r="C150" s="13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="31"/>
-      <c r="B151" s="25"/>
-      <c r="C151" s="13">
-        <v>14</v>
+      <c r="A151" s="24"/>
+      <c r="B151" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C151" s="14">
+        <v>4</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="31"/>
-      <c r="B152" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C152" s="14">
+      <c r="A152" s="24"/>
+      <c r="B152" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C152" s="13">
+        <v>3</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="24"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="13">
         <v>4</v>
       </c>
-      <c r="D152" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="31"/>
-      <c r="B153" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C153" s="13">
-        <v>3</v>
-      </c>
       <c r="D153" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="31"/>
+      <c r="A154" s="24"/>
       <c r="B154" s="25"/>
       <c r="C154" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="31"/>
+      <c r="A155" s="24"/>
       <c r="B155" s="25"/>
       <c r="C155" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="31"/>
+      <c r="A156" s="24"/>
       <c r="B156" s="25"/>
       <c r="C156" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="31"/>
+      <c r="A157" s="24"/>
       <c r="B157" s="25"/>
       <c r="C157" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="31"/>
-      <c r="B158" s="25"/>
-      <c r="C158" s="13">
-        <v>10</v>
-      </c>
-      <c r="D158" s="12" t="s">
-        <v>52</v>
+      <c r="A158" s="24"/>
+      <c r="B158" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C158" s="18">
+        <v>3</v>
+      </c>
+      <c r="D158" s="17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="31"/>
-      <c r="B159" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C159" s="18">
+      <c r="A159" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B159" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159" s="14">
         <v>3</v>
       </c>
-      <c r="D159" s="17" t="s">
-        <v>62</v>
+      <c r="D159" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B160" s="25" t="s">
-        <v>23</v>
-      </c>
+      <c r="A160" s="24"/>
+      <c r="B160" s="25"/>
       <c r="C160" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="31"/>
+      <c r="A161" s="24"/>
       <c r="B161" s="25"/>
-      <c r="C161" s="14">
-        <v>4</v>
+      <c r="C161" s="13">
+        <v>5</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="31"/>
+      <c r="A162" s="24"/>
       <c r="B162" s="25"/>
       <c r="C162" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="31"/>
+      <c r="A163" s="24"/>
       <c r="B163" s="25"/>
       <c r="C163" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="31"/>
+      <c r="A164" s="24"/>
       <c r="B164" s="25"/>
       <c r="C164" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="31"/>
+      <c r="A165" s="24"/>
       <c r="B165" s="25"/>
       <c r="C165" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="31"/>
+      <c r="A166" s="24"/>
       <c r="B166" s="25"/>
       <c r="C166" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="31"/>
+      <c r="A167" s="24"/>
       <c r="B167" s="25"/>
       <c r="C167" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="31"/>
-      <c r="B168" s="25"/>
-      <c r="C168" s="13">
-        <v>15</v>
+      <c r="A168" s="24"/>
+      <c r="B168" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168" s="14">
+        <v>3</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="31"/>
-      <c r="B169" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C169" s="14">
-        <v>3</v>
+      <c r="A169" s="24"/>
+      <c r="B169" s="25"/>
+      <c r="C169" s="13">
+        <v>4</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="31"/>
+      <c r="A170" s="24"/>
       <c r="B170" s="25"/>
       <c r="C170" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="31"/>
+      <c r="A171" s="24"/>
       <c r="B171" s="25"/>
       <c r="C171" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="31"/>
+      <c r="A172" s="24"/>
       <c r="B172" s="25"/>
-      <c r="C172" s="13">
-        <v>6</v>
+      <c r="C172" s="14">
+        <v>7</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="31"/>
+      <c r="A173" s="24"/>
       <c r="B173" s="25"/>
-      <c r="C173" s="14">
-        <v>7</v>
+      <c r="C173" s="13">
+        <v>8</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="31"/>
+      <c r="A174" s="24"/>
       <c r="B174" s="25"/>
       <c r="C174" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="31"/>
+      <c r="A175" s="24"/>
       <c r="B175" s="25"/>
       <c r="C175" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="31"/>
+      <c r="A176" s="24"/>
       <c r="B176" s="25"/>
       <c r="C176" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="31"/>
+      <c r="A177" s="24"/>
       <c r="B177" s="25"/>
       <c r="C177" s="13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="31"/>
-      <c r="B178" s="25"/>
-      <c r="C178" s="13">
-        <v>14</v>
+      <c r="A178" s="24"/>
+      <c r="B178" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C178" s="14">
+        <v>4</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="31"/>
-      <c r="B179" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C179" s="14">
+      <c r="A179" s="24"/>
+      <c r="B179" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C179" s="13">
+        <v>3</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="24"/>
+      <c r="B180" s="25"/>
+      <c r="C180" s="13">
         <v>4</v>
       </c>
-      <c r="D179" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="31"/>
-      <c r="B180" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C180" s="13">
-        <v>3</v>
-      </c>
       <c r="D180" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="31"/>
+      <c r="A181" s="24"/>
       <c r="B181" s="25"/>
       <c r="C181" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="31"/>
+      <c r="A182" s="24"/>
       <c r="B182" s="25"/>
       <c r="C182" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="31"/>
+      <c r="A183" s="24"/>
       <c r="B183" s="25"/>
       <c r="C183" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="31"/>
+      <c r="A184" s="24"/>
       <c r="B184" s="25"/>
       <c r="C184" s="13">
+        <v>10</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="24"/>
+      <c r="B185" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C185" s="18">
+        <v>3</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B186" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C186" s="14">
+        <v>3</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="26"/>
+      <c r="B187" s="28"/>
+      <c r="C187" s="14">
+        <v>4</v>
+      </c>
+      <c r="D187" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="26"/>
+      <c r="B188" s="28"/>
+      <c r="C188" s="13">
+        <v>5</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="26"/>
+      <c r="B189" s="28"/>
+      <c r="C189" s="13">
+        <v>8</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="26"/>
+      <c r="B190" s="28"/>
+      <c r="C190" s="13">
+        <v>10</v>
+      </c>
+      <c r="D190" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="26"/>
+      <c r="B191" s="28"/>
+      <c r="C191" s="13">
+        <v>12</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="26"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="13">
+        <v>13</v>
+      </c>
+      <c r="D192" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="26"/>
+      <c r="B193" s="28"/>
+      <c r="C193" s="13">
+        <v>14</v>
+      </c>
+      <c r="D193" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="26"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="13">
+        <v>15</v>
+      </c>
+      <c r="D194" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="26"/>
+      <c r="B195" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C195" s="14">
+        <v>3</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="26"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="13">
+        <v>4</v>
+      </c>
+      <c r="D196" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="26"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="13">
+        <v>5</v>
+      </c>
+      <c r="D197" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="26"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="13">
+        <v>6</v>
+      </c>
+      <c r="D198" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="26"/>
+      <c r="B199" s="28"/>
+      <c r="C199" s="14">
+        <v>7</v>
+      </c>
+      <c r="D199" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="26"/>
+      <c r="B200" s="28"/>
+      <c r="C200" s="13">
+        <v>8</v>
+      </c>
+      <c r="D200" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="26"/>
+      <c r="B201" s="28"/>
+      <c r="C201" s="13">
+        <v>10</v>
+      </c>
+      <c r="D201" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="26"/>
+      <c r="B202" s="28"/>
+      <c r="C202" s="13">
+        <v>11</v>
+      </c>
+      <c r="D202" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="26"/>
+      <c r="B203" s="28"/>
+      <c r="C203" s="13">
+        <v>12</v>
+      </c>
+      <c r="D203" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="26"/>
+      <c r="B204" s="28"/>
+      <c r="C204" s="13">
+        <v>14</v>
+      </c>
+      <c r="D204" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="26"/>
+      <c r="B205" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C205" s="14">
+        <v>4</v>
+      </c>
+      <c r="D205" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="26"/>
+      <c r="B206" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C206" s="13">
+        <v>3</v>
+      </c>
+      <c r="D206" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="26"/>
+      <c r="B207" s="28"/>
+      <c r="C207" s="13">
+        <v>4</v>
+      </c>
+      <c r="D207" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="26"/>
+      <c r="B208" s="28"/>
+      <c r="C208" s="13">
+        <v>5</v>
+      </c>
+      <c r="D208" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="26"/>
+      <c r="B209" s="28"/>
+      <c r="C209" s="13">
+        <v>8</v>
+      </c>
+      <c r="D209" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="26"/>
+      <c r="B210" s="28"/>
+      <c r="C210" s="13">
         <v>9</v>
       </c>
-      <c r="D184" s="12" t="s">
+      <c r="D210" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="31"/>
-      <c r="B185" s="25"/>
-      <c r="C185" s="13">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="26"/>
+      <c r="B211" s="28"/>
+      <c r="C211" s="13">
         <v>10</v>
       </c>
-      <c r="D185" s="12" t="s">
+      <c r="D211" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="31"/>
-      <c r="B186" s="17" t="s">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="26"/>
+      <c r="B212" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C186" s="18">
+      <c r="C212" s="18">
         <v>3</v>
       </c>
-      <c r="D186" s="17" t="s">
+      <c r="D212" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B187" s="23" t="s">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B213" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C187" s="14">
+      <c r="C213" s="14">
         <v>3</v>
       </c>
-      <c r="D187" s="12" t="s">
+      <c r="D213" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="33"/>
-      <c r="B188" s="24"/>
-      <c r="C188" s="14">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="26"/>
+      <c r="B214" s="28"/>
+      <c r="C214" s="14">
         <v>4</v>
       </c>
-      <c r="D188" s="12" t="s">
+      <c r="D214" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="33"/>
-      <c r="B189" s="24"/>
-      <c r="C189" s="13">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="26"/>
+      <c r="B215" s="28"/>
+      <c r="C215" s="13">
         <v>5</v>
       </c>
-      <c r="D189" s="12" t="s">
+      <c r="D215" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="33"/>
-      <c r="B190" s="24"/>
-      <c r="C190" s="13">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="26"/>
+      <c r="B216" s="28"/>
+      <c r="C216" s="13">
         <v>8</v>
       </c>
-      <c r="D190" s="12" t="s">
+      <c r="D216" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="33"/>
-      <c r="B191" s="24"/>
-      <c r="C191" s="13">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="26"/>
+      <c r="B217" s="28"/>
+      <c r="C217" s="13">
         <v>10</v>
       </c>
-      <c r="D191" s="12" t="s">
+      <c r="D217" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="33"/>
-      <c r="B192" s="24"/>
-      <c r="C192" s="13">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="26"/>
+      <c r="B218" s="28"/>
+      <c r="C218" s="13">
         <v>12</v>
       </c>
-      <c r="D192" s="12" t="s">
+      <c r="D218" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="33"/>
-      <c r="B193" s="24"/>
-      <c r="C193" s="13">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="26"/>
+      <c r="B219" s="28"/>
+      <c r="C219" s="13">
         <v>13</v>
       </c>
-      <c r="D193" s="12" t="s">
+      <c r="D219" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="33"/>
-      <c r="B194" s="24"/>
-      <c r="C194" s="13">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="26"/>
+      <c r="B220" s="28"/>
+      <c r="C220" s="13">
         <v>14</v>
       </c>
-      <c r="D194" s="12" t="s">
+      <c r="D220" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="33"/>
-      <c r="B195" s="24"/>
-      <c r="C195" s="13">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="26"/>
+      <c r="B221" s="28"/>
+      <c r="C221" s="13">
         <v>15</v>
       </c>
-      <c r="D195" s="12" t="s">
+      <c r="D221" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="33"/>
-      <c r="B196" s="23" t="s">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="26"/>
+      <c r="B222" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C196" s="14">
+      <c r="C222" s="14">
         <v>3</v>
       </c>
-      <c r="D196" s="12" t="s">
+      <c r="D222" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="33"/>
-      <c r="B197" s="24"/>
-      <c r="C197" s="13">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="26"/>
+      <c r="B223" s="28"/>
+      <c r="C223" s="13">
         <v>4</v>
       </c>
-      <c r="D197" s="12" t="s">
+      <c r="D223" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="33"/>
-      <c r="B198" s="24"/>
-      <c r="C198" s="13">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="26"/>
+      <c r="B224" s="28"/>
+      <c r="C224" s="13">
         <v>5</v>
       </c>
-      <c r="D198" s="12" t="s">
+      <c r="D224" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="33"/>
-      <c r="B199" s="24"/>
-      <c r="C199" s="13">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="26"/>
+      <c r="B225" s="28"/>
+      <c r="C225" s="13">
         <v>6</v>
       </c>
-      <c r="D199" s="12" t="s">
+      <c r="D225" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="33"/>
-      <c r="B200" s="24"/>
-      <c r="C200" s="14">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="26"/>
+      <c r="B226" s="28"/>
+      <c r="C226" s="14">
         <v>7</v>
       </c>
-      <c r="D200" s="12" t="s">
+      <c r="D226" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="33"/>
-      <c r="B201" s="24"/>
-      <c r="C201" s="13">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="26"/>
+      <c r="B227" s="28"/>
+      <c r="C227" s="13">
         <v>8</v>
       </c>
-      <c r="D201" s="12" t="s">
+      <c r="D227" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="33"/>
-      <c r="B202" s="24"/>
-      <c r="C202" s="13">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="26"/>
+      <c r="B228" s="28"/>
+      <c r="C228" s="13">
         <v>10</v>
       </c>
-      <c r="D202" s="12" t="s">
+      <c r="D228" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="33"/>
-      <c r="B203" s="24"/>
-      <c r="C203" s="13">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="26"/>
+      <c r="B229" s="28"/>
+      <c r="C229" s="13">
         <v>11</v>
       </c>
-      <c r="D203" s="12" t="s">
+      <c r="D229" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="33"/>
-      <c r="B204" s="24"/>
-      <c r="C204" s="13">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="26"/>
+      <c r="B230" s="28"/>
+      <c r="C230" s="13">
         <v>12</v>
       </c>
-      <c r="D204" s="12" t="s">
+      <c r="D230" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="33"/>
-      <c r="B205" s="24"/>
-      <c r="C205" s="13">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="26"/>
+      <c r="B231" s="28"/>
+      <c r="C231" s="13">
         <v>14</v>
       </c>
-      <c r="D205" s="12" t="s">
+      <c r="D231" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="33"/>
-      <c r="B206" s="19" t="s">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="26"/>
+      <c r="B232" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C206" s="14">
+      <c r="C232" s="14">
         <v>4</v>
       </c>
-      <c r="D206" s="12" t="s">
+      <c r="D232" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="33"/>
-      <c r="B207" s="23" t="s">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="26"/>
+      <c r="B233" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C207" s="13">
+      <c r="C233" s="13">
         <v>3</v>
       </c>
-      <c r="D207" s="12" t="s">
+      <c r="D233" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="33"/>
-      <c r="B208" s="24"/>
-      <c r="C208" s="13">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="26"/>
+      <c r="B234" s="28"/>
+      <c r="C234" s="13">
         <v>4</v>
       </c>
-      <c r="D208" s="12" t="s">
+      <c r="D234" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="33"/>
-      <c r="B209" s="24"/>
-      <c r="C209" s="13">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="26"/>
+      <c r="B235" s="28"/>
+      <c r="C235" s="13">
         <v>5</v>
       </c>
-      <c r="D209" s="12" t="s">
+      <c r="D235" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="33"/>
-      <c r="B210" s="24"/>
-      <c r="C210" s="13">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="26"/>
+      <c r="B236" s="28"/>
+      <c r="C236" s="13">
         <v>8</v>
       </c>
-      <c r="D210" s="12" t="s">
+      <c r="D236" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="33"/>
-      <c r="B211" s="24"/>
-      <c r="C211" s="13">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="26"/>
+      <c r="B237" s="28"/>
+      <c r="C237" s="13">
         <v>9</v>
       </c>
-      <c r="D211" s="12" t="s">
+      <c r="D237" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="33"/>
-      <c r="B212" s="24"/>
-      <c r="C212" s="13">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="26"/>
+      <c r="B238" s="28"/>
+      <c r="C238" s="13">
         <v>10</v>
       </c>
-      <c r="D212" s="12" t="s">
+      <c r="D238" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="33"/>
-      <c r="B213" s="20" t="s">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="26"/>
+      <c r="B239" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C213" s="18">
+      <c r="C239" s="18">
         <v>3</v>
       </c>
-      <c r="D213" s="17" t="s">
+      <c r="D239" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B214" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C214" s="14">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B240" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C240" s="22">
+        <v>5</v>
+      </c>
+      <c r="D240" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B241" s="23"/>
+      <c r="C241" s="22">
+        <v>6</v>
+      </c>
+      <c r="D241" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B242" s="23"/>
+      <c r="C242" s="22">
+        <v>7</v>
+      </c>
+      <c r="D242" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B243" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C243" s="11">
         <v>3</v>
       </c>
-      <c r="D214" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="33"/>
-      <c r="B215" s="24"/>
-      <c r="C215" s="14">
-        <v>4</v>
-      </c>
-      <c r="D215" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="33"/>
-      <c r="B216" s="24"/>
-      <c r="C216" s="13">
-        <v>5</v>
-      </c>
-      <c r="D216" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="33"/>
-      <c r="B217" s="24"/>
-      <c r="C217" s="13">
-        <v>8</v>
-      </c>
-      <c r="D217" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="33"/>
-      <c r="B218" s="24"/>
-      <c r="C218" s="13">
-        <v>10</v>
-      </c>
-      <c r="D218" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="33"/>
-      <c r="B219" s="24"/>
-      <c r="C219" s="13">
-        <v>12</v>
-      </c>
-      <c r="D219" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="33"/>
-      <c r="B220" s="24"/>
-      <c r="C220" s="13">
-        <v>13</v>
-      </c>
-      <c r="D220" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="33"/>
-      <c r="B221" s="24"/>
-      <c r="C221" s="13">
-        <v>14</v>
-      </c>
-      <c r="D221" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="33"/>
-      <c r="B222" s="24"/>
-      <c r="C222" s="13">
-        <v>15</v>
-      </c>
-      <c r="D222" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="33"/>
-      <c r="B223" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C223" s="14">
-        <v>3</v>
-      </c>
-      <c r="D223" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="33"/>
-      <c r="B224" s="24"/>
-      <c r="C224" s="13">
-        <v>4</v>
-      </c>
-      <c r="D224" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="33"/>
-      <c r="B225" s="24"/>
-      <c r="C225" s="13">
-        <v>5</v>
-      </c>
-      <c r="D225" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="33"/>
-      <c r="B226" s="24"/>
-      <c r="C226" s="13">
-        <v>6</v>
-      </c>
-      <c r="D226" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="33"/>
-      <c r="B227" s="24"/>
-      <c r="C227" s="14">
-        <v>7</v>
-      </c>
-      <c r="D227" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="33"/>
-      <c r="B228" s="24"/>
-      <c r="C228" s="13">
-        <v>8</v>
-      </c>
-      <c r="D228" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="33"/>
-      <c r="B229" s="24"/>
-      <c r="C229" s="13">
-        <v>10</v>
-      </c>
-      <c r="D229" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="33"/>
-      <c r="B230" s="24"/>
-      <c r="C230" s="13">
-        <v>11</v>
-      </c>
-      <c r="D230" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="33"/>
-      <c r="B231" s="24"/>
-      <c r="C231" s="13">
-        <v>12</v>
-      </c>
-      <c r="D231" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="33"/>
-      <c r="B232" s="24"/>
-      <c r="C232" s="13">
-        <v>14</v>
-      </c>
-      <c r="D232" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="33"/>
-      <c r="B233" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C233" s="14">
-        <v>4</v>
-      </c>
-      <c r="D233" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="33"/>
-      <c r="B234" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C234" s="13">
-        <v>3</v>
-      </c>
-      <c r="D234" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="33"/>
-      <c r="B235" s="24"/>
-      <c r="C235" s="13">
-        <v>4</v>
-      </c>
-      <c r="D235" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="33"/>
-      <c r="B236" s="24"/>
-      <c r="C236" s="13">
-        <v>5</v>
-      </c>
-      <c r="D236" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="33"/>
-      <c r="B237" s="24"/>
-      <c r="C237" s="13">
-        <v>8</v>
-      </c>
-      <c r="D237" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="33"/>
-      <c r="B238" s="24"/>
-      <c r="C238" s="13">
-        <v>9</v>
-      </c>
-      <c r="D238" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="33"/>
-      <c r="B239" s="24"/>
-      <c r="C239" s="13">
-        <v>10</v>
-      </c>
-      <c r="D239" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="33"/>
-      <c r="B240" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C240" s="18">
-        <v>3</v>
-      </c>
-      <c r="D240" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B241" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C241" s="14">
-        <v>3</v>
-      </c>
-      <c r="D241" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="33"/>
-      <c r="B242" s="24"/>
-      <c r="C242" s="14">
-        <v>4</v>
-      </c>
-      <c r="D242" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="33"/>
-      <c r="B243" s="24"/>
-      <c r="C243" s="13">
-        <v>5</v>
-      </c>
-      <c r="D243" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="33"/>
-      <c r="B244" s="24"/>
-      <c r="C244" s="13">
-        <v>8</v>
-      </c>
-      <c r="D244" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="33"/>
-      <c r="B245" s="24"/>
-      <c r="C245" s="13">
-        <v>10</v>
-      </c>
-      <c r="D245" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="33"/>
-      <c r="B246" s="24"/>
-      <c r="C246" s="13">
-        <v>12</v>
-      </c>
-      <c r="D246" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="33"/>
-      <c r="B247" s="24"/>
-      <c r="C247" s="13">
-        <v>13</v>
-      </c>
-      <c r="D247" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="33"/>
-      <c r="B248" s="24"/>
-      <c r="C248" s="13">
-        <v>14</v>
-      </c>
-      <c r="D248" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="33"/>
-      <c r="B249" s="24"/>
-      <c r="C249" s="13">
-        <v>15</v>
-      </c>
-      <c r="D249" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="33"/>
-      <c r="B250" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C250" s="14">
-        <v>3</v>
-      </c>
-      <c r="D250" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="33"/>
-      <c r="B251" s="24"/>
-      <c r="C251" s="13">
-        <v>4</v>
-      </c>
-      <c r="D251" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="33"/>
-      <c r="B252" s="24"/>
-      <c r="C252" s="13">
-        <v>5</v>
-      </c>
-      <c r="D252" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="33"/>
-      <c r="B253" s="24"/>
-      <c r="C253" s="13">
-        <v>6</v>
-      </c>
-      <c r="D253" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="33"/>
-      <c r="B254" s="24"/>
-      <c r="C254" s="14">
-        <v>7</v>
-      </c>
-      <c r="D254" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="33"/>
-      <c r="B255" s="24"/>
-      <c r="C255" s="13">
-        <v>8</v>
-      </c>
-      <c r="D255" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="33"/>
-      <c r="B256" s="24"/>
-      <c r="C256" s="13">
-        <v>10</v>
-      </c>
-      <c r="D256" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="33"/>
-      <c r="B257" s="24"/>
-      <c r="C257" s="13">
-        <v>11</v>
-      </c>
-      <c r="D257" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="33"/>
-      <c r="B258" s="24"/>
-      <c r="C258" s="13">
-        <v>12</v>
-      </c>
-      <c r="D258" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="33"/>
-      <c r="B259" s="24"/>
-      <c r="C259" s="13">
-        <v>14</v>
-      </c>
-      <c r="D259" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="33"/>
-      <c r="B260" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C260" s="14">
-        <v>4</v>
-      </c>
-      <c r="D260" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="33"/>
-      <c r="B261" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C261" s="13">
-        <v>3</v>
-      </c>
-      <c r="D261" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="33"/>
-      <c r="B262" s="24"/>
-      <c r="C262" s="13">
-        <v>4</v>
-      </c>
-      <c r="D262" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="33"/>
-      <c r="B263" s="24"/>
-      <c r="C263" s="13">
-        <v>5</v>
-      </c>
-      <c r="D263" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" s="33"/>
-      <c r="B264" s="24"/>
-      <c r="C264" s="13">
-        <v>8</v>
-      </c>
-      <c r="D264" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" s="33"/>
-      <c r="B265" s="24"/>
-      <c r="C265" s="13">
-        <v>9</v>
-      </c>
-      <c r="D265" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="33"/>
-      <c r="B266" s="24"/>
-      <c r="C266" s="13">
-        <v>10</v>
-      </c>
-      <c r="D266" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="33"/>
-      <c r="B267" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C267" s="18">
-        <v>3</v>
-      </c>
-      <c r="D267" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B268" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C268" s="22">
-        <v>5</v>
-      </c>
-      <c r="D268" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B269" s="32"/>
-      <c r="C269" s="22">
-        <v>6</v>
-      </c>
-      <c r="D269" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B270" s="32"/>
-      <c r="C270" s="22">
-        <v>7</v>
-      </c>
-      <c r="D270" s="21" t="s">
-        <v>71</v>
+      <c r="D243" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="B268:B270"/>
-    <mergeCell ref="A160:A186"/>
-    <mergeCell ref="B160:B168"/>
-    <mergeCell ref="B169:B178"/>
-    <mergeCell ref="B180:B185"/>
-    <mergeCell ref="A187:A213"/>
-    <mergeCell ref="B187:B195"/>
-    <mergeCell ref="B196:B205"/>
-    <mergeCell ref="B207:B212"/>
-    <mergeCell ref="A214:A240"/>
-    <mergeCell ref="B214:B222"/>
-    <mergeCell ref="B223:B232"/>
-    <mergeCell ref="B234:B239"/>
-    <mergeCell ref="A241:A267"/>
-    <mergeCell ref="B241:B249"/>
-    <mergeCell ref="B250:B259"/>
-    <mergeCell ref="B126:B131"/>
-    <mergeCell ref="A133:A159"/>
-    <mergeCell ref="B133:B141"/>
-    <mergeCell ref="B142:B151"/>
-    <mergeCell ref="B153:B158"/>
+  <mergeCells count="38">
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="A17:A50"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="B60:B69"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A51:A77"/>
+    <mergeCell ref="A78:A104"/>
+    <mergeCell ref="B78:B86"/>
+    <mergeCell ref="B87:B96"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="A105:A131"/>
+    <mergeCell ref="B105:B113"/>
+    <mergeCell ref="B114:B123"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="B261:B266"/>
-    <mergeCell ref="B27:B36"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="A18:A51"/>
-    <mergeCell ref="B52:B60"/>
-    <mergeCell ref="B61:B70"/>
-    <mergeCell ref="B72:B77"/>
-    <mergeCell ref="A52:A78"/>
-    <mergeCell ref="A79:A105"/>
-    <mergeCell ref="B79:B87"/>
-    <mergeCell ref="B88:B97"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="A106:A132"/>
-    <mergeCell ref="B106:B114"/>
-    <mergeCell ref="B115:B124"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="B125:B130"/>
+    <mergeCell ref="A132:A158"/>
+    <mergeCell ref="B132:B140"/>
+    <mergeCell ref="B141:B150"/>
+    <mergeCell ref="B152:B157"/>
+    <mergeCell ref="B240:B242"/>
+    <mergeCell ref="A159:A185"/>
+    <mergeCell ref="B159:B167"/>
+    <mergeCell ref="B168:B177"/>
+    <mergeCell ref="B179:B184"/>
+    <mergeCell ref="A186:A212"/>
+    <mergeCell ref="B186:B194"/>
+    <mergeCell ref="B195:B204"/>
+    <mergeCell ref="B206:B211"/>
+    <mergeCell ref="A213:A239"/>
+    <mergeCell ref="B213:B221"/>
+    <mergeCell ref="B222:B231"/>
+    <mergeCell ref="B233:B238"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
